--- a/src/main/resources/TestData/Call_Center_Registration.xlsx
+++ b/src/main/resources/TestData/Call_Center_Registration.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CallCenterReg_MobileNumber" sheetId="2" r:id="rId1"/>
     <sheet name="CallCenterReg_EmailId" sheetId="3" r:id="rId2"/>
     <sheet name="CallCenterRegister_UnregEntity" sheetId="4" r:id="rId3"/>
     <sheet name="CallCenterRegister_Intermediary" sheetId="5" r:id="rId4"/>
+    <sheet name="CallCenterRegister_NewUser" sheetId="6" r:id="rId5"/>
+    <sheet name="Call_Center" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="62">
   <si>
     <t>Mobile Number</t>
   </si>
@@ -140,6 +142,69 @@
   </si>
   <si>
     <t>Intermidiary Type</t>
+  </si>
+  <si>
+    <t>Intermediary</t>
+  </si>
+  <si>
+    <t>Broker</t>
+  </si>
+  <si>
+    <t>A to Z Ins. Brokers Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Broker Name</t>
+  </si>
+  <si>
+    <t>Priority Handling</t>
+  </si>
+  <si>
+    <t>TAT</t>
+  </si>
+  <si>
+    <t>Priority Handling Details</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Member of Paliament</t>
+  </si>
+  <si>
+    <t>Resolve complaint withing 5 days</t>
+  </si>
+  <si>
+    <t>Register complaint for VIP Person</t>
+  </si>
+  <si>
+    <t>Complaint Name</t>
+  </si>
+  <si>
+    <t>Nutan bhor</t>
+  </si>
+  <si>
+    <t>nutanbhor@gmail.com</t>
+  </si>
+  <si>
+    <t>Complaint Number</t>
+  </si>
+  <si>
+    <t>Entity Reference Number</t>
+  </si>
+  <si>
+    <t>Policy Number</t>
+  </si>
+  <si>
+    <t>Complainant Name</t>
+  </si>
+  <si>
+    <t>06-24-000615</t>
+  </si>
+  <si>
+    <t>HDFCG005915</t>
+  </si>
+  <si>
+    <t>Sandeep Kashyap</t>
   </si>
 </sst>
 </file>
@@ -185,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -208,23 +273,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -245,8 +299,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -553,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -568,13 +640,16 @@
     <col min="5" max="5" width="26.08984375" customWidth="1"/>
     <col min="6" max="6" width="15.6328125" customWidth="1"/>
     <col min="7" max="7" width="18.08984375" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" customWidth="1"/>
+    <col min="8" max="8" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.36328125" customWidth="1"/>
     <col min="11" max="11" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -608,8 +683,20 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -640,8 +727,20 @@
       <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="7">
+        <v>5</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -754,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -892,23 +991,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.08984375" customWidth="1"/>
     <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" customWidth="1"/>
+    <col min="9" max="9" width="26.08984375" customWidth="1"/>
+    <col min="10" max="10" width="25.08984375" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.453125" customWidth="1"/>
+    <col min="13" max="13" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -921,14 +1026,270 @@
       <c r="D1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
+        <v>8691959368</v>
+      </c>
+      <c r="C2" s="10">
+        <v>400610</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6328125" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="12">
+        <v>9999999999</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="10">
+        <v>401303</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="7">
+        <v>5</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="14">
+        <v>121231</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="14">
+        <v>8691959368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>